--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DA\dashboard_screen_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A1630D-D689-4DB3-AC06-36202BAC5122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F11BEB-03F3-48A7-9ED4-D335CB916A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Lifestyle Dashboard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Lifestyle Dashboard'!$A$3:$U$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Lifestyle Dashboard'!$A$3:$U$93</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Lifestyle &amp; Screen Time Premium Dashboard</t>
   </si>
@@ -51,6 +51,18 @@
   <si>
     <t>Waqar Nishat (BSDA-24-04)</t>
   </si>
+  <si>
+    <t>This graph shows that average sleeping hours are almost the same across all occupations. Unemployed people sleep slightly more, while employed, retired, and students have nearly equal sleep durations — around 7 hours per day.</t>
+  </si>
+  <si>
+    <t>This graph shows a positive relationship between screen time and stress level. As screen time increases, stress levels also tend to rise — suggesting that spending more hours on screens may lead to higher stress.</t>
+  </si>
+  <si>
+    <t>This graph shows that average sleeping hours are quite similar across all work modes. People working in-person sleep slightly more (about 7.1 hours), while remote workers sleep a bit less (around 6.9 hours). Overall, work mode has only a small effect on sleep duration.</t>
+  </si>
+  <si>
+    <t>This graph shows that people with excellent sleep quality tend to have lower and more consistent screen time, while those with poor or very poor sleep quality have higher and more varied screen time. In short, more screen time is linked with poorer sleep quality.</t>
+  </si>
 </sst>
 </file>
 
@@ -69,6 +81,7 @@
       <sz val="16"/>
       <color rgb="FF1F4E79"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -143,44 +156,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -211,7 +236,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2156460" cy="1005840"/>
@@ -248,7 +273,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2522220" cy="1005840"/>
@@ -283,46 +308,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2392680" cy="998220"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5082540" y="868680"/>
-          <a:ext cx="2392680" cy="998220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2278380" cy="1005840"/>
@@ -338,7 +326,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -359,7 +347,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2255520" cy="1021080"/>
@@ -375,7 +363,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -396,7 +384,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3810000"/>
@@ -412,7 +400,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -433,7 +421,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>532163</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>162296</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3810000"/>
@@ -449,7 +437,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -470,7 +458,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>517826</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>6454</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5789219" cy="3681352"/>
@@ -486,7 +474,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -530,7 +518,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -557,7 +545,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>397565</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>115955</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5665305" cy="3959087"/>
@@ -573,7 +561,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -582,6 +570,43 @@
         <a:xfrm>
           <a:off x="397565" y="8464825"/>
           <a:ext cx="5665305" cy="3959087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137709</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2543061" cy="1000697"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 3" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B0431F-70F5-4604-B292-57C1B387E96B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4985131" y="2001398"/>
+          <a:ext cx="2543061" cy="1000697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,245 +903,503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:T141"/>
+  <dimension ref="A4:T149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="46" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="Z63" sqref="Z63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="13" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="40" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="M72" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+    </row>
+    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="7" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-    </row>
-    <row r="71" spans="1:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+    </row>
+    <row r="79" spans="1:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="4" t="s">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-    </row>
-    <row r="73" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-    </row>
-    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="78" spans="1:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="A78" s="15" t="s">
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+    </row>
+    <row r="81" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+    </row>
+    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="86" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="A86" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-    </row>
-    <row r="79" spans="1:20" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="B79" s="14" t="s">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="1:20" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="B87" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-    </row>
-    <row r="80" spans="1:20" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="B80" s="14" t="s">
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="1:20" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="B88" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-    </row>
-    <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:T70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:T71"/>
-    <mergeCell ref="A72:C73"/>
-    <mergeCell ref="D72:T73"/>
+  <mergeCells count="15">
+    <mergeCell ref="B72:I75"/>
+    <mergeCell ref="M72:T75"/>
     <mergeCell ref="B4:T5"/>
     <mergeCell ref="B6:T6"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:T78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:T79"/>
+    <mergeCell ref="A80:C81"/>
+    <mergeCell ref="D80:T81"/>
+    <mergeCell ref="B40:I42"/>
+    <mergeCell ref="M40:T42"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D72" r:id="rId1" xr:uid="{067BE205-070D-4E32-BA6F-DD9FE036EEF5}"/>
-    <hyperlink ref="D70" r:id="rId2" xr:uid="{2C9AD8D9-2244-4161-B890-2BE5CA881AEC}"/>
+    <hyperlink ref="D80" r:id="rId1" xr:uid="{067BE205-070D-4E32-BA6F-DD9FE036EEF5}"/>
+    <hyperlink ref="D78" r:id="rId2" xr:uid="{2C9AD8D9-2244-4161-B890-2BE5CA881AEC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" orientation="landscape" r:id="rId3"/>
